--- a/biology/Microbiologie/Hartmannulidae/Hartmannulidae.xlsx
+++ b/biology/Microbiologie/Hartmannulidae/Hartmannulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hartmannulidae sont une famille de Ciliés de la classe des Cyrtophoria et de l’ordre des Cyrtophorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Hartmannula, probablement nommé en hommage au protozoologiste allemand Max Hartmann (en) (1876-1962).
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hartmannulidae ont une taille, petite à moyenne. Leur forme est ovoïde et aplatie. Ils nagent librement dans leur milieu de vie, mais peuvent se fixer au substrat, formant parfois un filament de « byssal ». 
 Leur ciliature somatique comprend des cinéties somatiques ventrales gauches, qui peuvent être assez courtes, sous forme de champ continu (non fragmenté). Les cinéties ventrales sont situées derrière le podite (petit appendice situé vers le tier inférieur). Leur ciliature orale est variable : soit un seul fragment circumoral, soit un fragment préoral, soit deux fragments circumoraux.  
-Leur macronoyau est hétéromère, c'est-à-dire composé de fragments ellipsoïdes juxtaposés. Un micronoyau est présent. Ils peuvent avoir plusieurs vacuoles contractiles. Ils se nourrissent de bactéries, de diatomées et d'autres microalgues[1].
+Leur macronoyau est hétéromère, c'est-à-dire composé de fragments ellipsoïdes juxtaposés. Un micronoyau est présent. Ils peuvent avoir plusieurs vacuoles contractiles. Ils se nourrissent de bactéries, de diatomées et d'autres microalgues.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hartmannulidae vivent dans des habitats marins, en liberté. Cependant le genre Brooklynella est un nuisible en tant que parasite des branchies des poissons marins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hartmannulidae vivent dans des habitats marins, en liberté. Cependant le genre Brooklynella est un nuisible en tant que parasite des branchies des poissons marins.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (9 décembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (9 décembre 2022) :
 Aegyriana Song &amp; Wilbert, 2002
 Aporthotrochilia Pan, Lin, Gong, Al-Rashied &amp; Song, 2012
 Brooklynella Lom &amp; Nigrelli, 1970
@@ -620,7 +640,7 @@
 Parachilodonella Dragesco, 1966
 Parachitinoidella Trejo, 1972
 Trichopodiella Corliss, 1960
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Aegyriana Song &amp; Wilbert, 2002
 Allosphaerium Kidder &amp; Summers, 1935
 Brooklynella Lom &amp; Nigrelli, 1970
@@ -659,10 +679,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Hartmannulidae Poche, 1913[3].
-Lynn considère Hartmannulidae comme un synonyme de Allosphaeriidae Poche, 1913 (genre type Allosphaerium)[4], mais GBIF       (9 décembre 2022)[2] n'intègre pas le genre Allosphaerium dans cette famille.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Hartmannulidae Poche, 1913.
+Lynn considère Hartmannulidae comme un synonyme de Allosphaeriidae Poche, 1913 (genre type Allosphaerium), mais GBIF       (9 décembre 2022) n'intègre pas le genre Allosphaerium dans cette famille.
 </t>
         </is>
       </c>
